--- a/artfynd/A 49765-2022.xlsx
+++ b/artfynd/A 49765-2022.xlsx
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>516720.4078195657</v>
+        <v>516720</v>
       </c>
       <c r="R10" t="n">
-        <v>6668765.74355137</v>
+        <v>6668766</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1817,19 +1817,9 @@
           <t>2023-08-13</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-13</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1918,10 +1908,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>516635.7186672141</v>
+        <v>516636</v>
       </c>
       <c r="R11" t="n">
-        <v>6668745.443043046</v>
+        <v>6668745</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1951,19 +1941,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
